--- a/biology/Zoologie/Amarynthis_meneria/Amarynthis_meneria.xlsx
+++ b/biology/Zoologie/Amarynthis_meneria/Amarynthis_meneria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amarynthis meneria est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Amarynthis dont il est le seul représentant.
 </t>
@@ -511,15 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amarynthis meneria a été décrit par Pieter Cramer en 1776 sous le nom de Papilio meneria.
-Synonymes :Papilio micalia Cramer, 1776; Hesperia maecenas Fabricius, 1793;Hesperia dimas Fabricius, 1796;Amarynthis coccitincta Seitz, 1913;Amarynthis superior Seitz, 1913[1].
-Formes
-Amarynthis meneria forme conflata Stichel, 1910; présent au Pérou.
-Amarynthis meneria stenogramma Stichel, 1910; présent en Équateur.
-Noms vernaculaires
-Il se nomme Meneria Metalmark en anglais.
+Synonymes :Papilio micalia Cramer, 1776; Hesperia maecenas Fabricius, 1793;Hesperia dimas Fabricius, 1796;Amarynthis coccitincta Seitz, 1913;Amarynthis superior Seitz, 1913.
 </t>
         </is>
       </c>
@@ -545,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amarynthis meneria est un papillon de taille moyenne avec une envergure variant de 35 mm à 50 mm[2]. Le dessus est noir orné d'une ligne submarginale rouge vif sur les antérieures et les postérieures et d'une barre rouge partant de la partie basale aux antérieures. Le revers est identique [3].
-</t>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amarynthis meneria forme conflata Stichel, 1910; présent au Pérou.
+Amarynthis meneria stenogramma Stichel, 1910; présent en Équateur.</t>
         </is>
       </c>
     </row>
@@ -576,10 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Meneria Metalmark en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +628,149 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amarynthis meneria est un papillon de taille moyenne avec une envergure variant de 35 mm à 50 mm. Le dessus est noir orné d'une ligne submarginale rouge vif sur les antérieures et les postérieures et d'une barre rouge partant de la partie basale aux antérieures. Le revers est identique .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amarynthis meneria est présent en Guyane, en Guyana, au Surinam, en Équateur, au Brésil et au Pérou[1].
-Biotope
-Il réside dans la forêt amazonienne en bord de fleuve.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amarynthis meneria est présent en Guyane, en Guyana, au Surinam, en Équateur, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt amazonienne en bord de fleuve.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarynthis_meneria</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
